--- a/Data_frame/balancos_definitivos/BOBR3.xlsx
+++ b/Data_frame/balancos_definitivos/BOBR3.xlsx
@@ -741,11 +741,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ativo Total</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>470479.008</v>
       </c>
@@ -861,61 +857,61 @@
         <v>635641.9840000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>767200</v>
+        <v>631662.0159999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>754953.9840000001</v>
+        <v>604803.968</v>
       </c>
       <c r="AP2" t="n">
-        <v>757574.0159999999</v>
+        <v>608419.968</v>
       </c>
       <c r="AQ2" t="n">
-        <v>765795.968</v>
+        <v>593774.976</v>
       </c>
       <c r="AR2" t="n">
-        <v>778414.976</v>
+        <v>657593.024</v>
       </c>
       <c r="AS2" t="n">
-        <v>780059.008</v>
+        <v>679553.9840000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>873484.992</v>
+        <v>697667.008</v>
       </c>
       <c r="AU2" t="n">
-        <v>894512</v>
+        <v>665953.024</v>
       </c>
       <c r="AV2" t="n">
-        <v>2427187.968</v>
+        <v>674947.008</v>
       </c>
       <c r="AW2" t="n">
-        <v>2424688.128</v>
+        <v>647833.024</v>
       </c>
       <c r="AX2" t="n">
-        <v>2469393.92</v>
+        <v>847868.992</v>
       </c>
       <c r="AY2" t="n">
-        <v>2582820.096</v>
+        <v>883825.9840000001</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2409870.08</v>
+        <v>852329.9840000001</v>
       </c>
       <c r="BA2" t="n">
-        <v>2485556.992</v>
+        <v>839660.032</v>
       </c>
       <c r="BB2" t="n">
-        <v>2524328.96</v>
+        <v>864840</v>
       </c>
       <c r="BC2" t="n">
-        <v>2584578.048</v>
+        <v>904491.008</v>
       </c>
       <c r="BD2" t="n">
-        <v>2698596.096</v>
+        <v>864393.024</v>
       </c>
       <c r="BE2" t="n">
-        <v>2758128.896</v>
+        <v>878003.008</v>
       </c>
       <c r="BF2" t="n">
-        <v>2479572.992</v>
+        <v>850708.992</v>
       </c>
       <c r="BG2" t="n">
         <v>900800</v>
@@ -928,11 +924,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ativo Circulante</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
         <v>187248.992</v>
       </c>
@@ -1048,61 +1040,61 @@
         <v>273777.984</v>
       </c>
       <c r="AN3" t="n">
-        <v>224712</v>
+        <v>280600</v>
       </c>
       <c r="AO3" t="n">
-        <v>209078</v>
+        <v>248866</v>
       </c>
       <c r="AP3" t="n">
-        <v>195788.992</v>
+        <v>251699.008</v>
       </c>
       <c r="AQ3" t="n">
-        <v>197755.008</v>
+        <v>245608</v>
       </c>
       <c r="AR3" t="n">
-        <v>174208</v>
+        <v>270193.984</v>
       </c>
       <c r="AS3" t="n">
-        <v>159712</v>
+        <v>291980.992</v>
       </c>
       <c r="AT3" t="n">
-        <v>253059.008</v>
+        <v>304582.016</v>
       </c>
       <c r="AU3" t="n">
-        <v>253700.992</v>
+        <v>267158</v>
       </c>
       <c r="AV3" t="n">
-        <v>1449747.968</v>
+        <v>282846.016</v>
       </c>
       <c r="AW3" t="n">
-        <v>1444961.024</v>
+        <v>252568.992</v>
       </c>
       <c r="AX3" t="n">
-        <v>1482363.008</v>
+        <v>312537.984</v>
       </c>
       <c r="AY3" t="n">
-        <v>1405132.032</v>
+        <v>348726.016</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1428683.008</v>
+        <v>373720.992</v>
       </c>
       <c r="BA3" t="n">
-        <v>1485364.992</v>
+        <v>377280.992</v>
       </c>
       <c r="BB3" t="n">
-        <v>1503442.048</v>
+        <v>407052.992</v>
       </c>
       <c r="BC3" t="n">
-        <v>1532132.992</v>
+        <v>426304.992</v>
       </c>
       <c r="BD3" t="n">
-        <v>1787565.056</v>
+        <v>412732.992</v>
       </c>
       <c r="BE3" t="n">
-        <v>1826873.984</v>
+        <v>444673.984</v>
       </c>
       <c r="BF3" t="n">
-        <v>1372109.056</v>
+        <v>402095.008</v>
       </c>
       <c r="BG3" t="n">
         <v>438032</v>
@@ -1115,11 +1107,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Caixa e Equivalentes de Caixa</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="n">
         <v>3443</v>
       </c>
@@ -1235,61 +1223,61 @@
         <v>7848</v>
       </c>
       <c r="AN4" t="n">
-        <v>118085</v>
+        <v>13918</v>
       </c>
       <c r="AO4" t="n">
-        <v>104693</v>
+        <v>12699</v>
       </c>
       <c r="AP4" t="n">
-        <v>75055</v>
+        <v>12431</v>
       </c>
       <c r="AQ4" t="n">
-        <v>71367</v>
+        <v>9483</v>
       </c>
       <c r="AR4" t="n">
-        <v>56847</v>
+        <v>13237</v>
       </c>
       <c r="AS4" t="n">
-        <v>47217</v>
+        <v>15836</v>
       </c>
       <c r="AT4" t="n">
-        <v>139188</v>
+        <v>20258</v>
       </c>
       <c r="AU4" t="n">
-        <v>136939.008</v>
+        <v>10693</v>
       </c>
       <c r="AV4" t="n">
-        <v>1300084.992</v>
+        <v>13851</v>
       </c>
       <c r="AW4" t="n">
-        <v>1296861.952</v>
+        <v>2945</v>
       </c>
       <c r="AX4" t="n">
-        <v>1332081.024</v>
+        <v>9783</v>
       </c>
       <c r="AY4" t="n">
-        <v>1233735.04</v>
+        <v>14503</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1264082.048</v>
+        <v>20544</v>
       </c>
       <c r="BA4" t="n">
-        <v>1314765.952</v>
+        <v>20781</v>
       </c>
       <c r="BB4" t="n">
-        <v>1307260.032</v>
+        <v>8509</v>
       </c>
       <c r="BC4" t="n">
-        <v>1344258.944</v>
+        <v>39630</v>
       </c>
       <c r="BD4" t="n">
-        <v>1382268.032</v>
+        <v>15890</v>
       </c>
       <c r="BE4" t="n">
-        <v>1430908.032</v>
+        <v>80759</v>
       </c>
       <c r="BF4" t="n">
-        <v>1146462.976</v>
+        <v>36187</v>
       </c>
       <c r="BG4" t="n">
         <v>38209</v>
@@ -1302,11 +1290,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Aplicações Financeiras</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>0</v>
       </c>
@@ -1422,61 +1406,61 @@
         <v>23788</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>9312</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>5269</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>5411</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>5175</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>5271</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>3461</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>5649</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>5937</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>7021</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>7583</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>8361</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>14828</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>17501</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>17918</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>16509</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>19765</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>16802</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>14056</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>11737</v>
       </c>
       <c r="BG5" t="n">
         <v>18601</v>
@@ -1489,11 +1473,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Contas a Receber</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
         <v>146340.992</v>
       </c>
@@ -1609,61 +1589,61 @@
         <v>151727.008</v>
       </c>
       <c r="AN6" t="n">
-        <v>95789</v>
+        <v>169104.992</v>
       </c>
       <c r="AO6" t="n">
-        <v>96258</v>
+        <v>149263.008</v>
       </c>
       <c r="AP6" t="n">
-        <v>107027</v>
+        <v>149176</v>
       </c>
       <c r="AQ6" t="n">
-        <v>107926</v>
+        <v>146304.992</v>
       </c>
       <c r="AR6" t="n">
-        <v>100131</v>
+        <v>188540.992</v>
       </c>
       <c r="AS6" t="n">
-        <v>92621</v>
+        <v>167268</v>
       </c>
       <c r="AT6" t="n">
-        <v>84940</v>
+        <v>155310</v>
       </c>
       <c r="AU6" t="n">
-        <v>96512</v>
+        <v>142424</v>
       </c>
       <c r="AV6" t="n">
-        <v>111748</v>
+        <v>161027.008</v>
       </c>
       <c r="AW6" t="n">
-        <v>110151</v>
+        <v>138575.008</v>
       </c>
       <c r="AX6" t="n">
-        <v>110981</v>
+        <v>165015.008</v>
       </c>
       <c r="AY6" t="n">
-        <v>122586</v>
+        <v>165988</v>
       </c>
       <c r="AZ6" t="n">
-        <v>120424</v>
+        <v>185078</v>
       </c>
       <c r="BA6" t="n">
-        <v>133735</v>
+        <v>182043.008</v>
       </c>
       <c r="BB6" t="n">
-        <v>140078</v>
+        <v>201676.992</v>
       </c>
       <c r="BC6" t="n">
-        <v>129902</v>
+        <v>193967.008</v>
       </c>
       <c r="BD6" t="n">
-        <v>132991</v>
+        <v>230074</v>
       </c>
       <c r="BE6" t="n">
-        <v>129695</v>
+        <v>185652.992</v>
       </c>
       <c r="BF6" t="n">
-        <v>127500</v>
+        <v>173430</v>
       </c>
       <c r="BG6" t="n">
         <v>204678</v>
@@ -1676,11 +1656,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Estoques</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>36076</v>
       </c>
@@ -1796,61 +1772,61 @@
         <v>75077</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>78092</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>72307</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>76331</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>75284</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>54484</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>65581</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>87747</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>85896</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>91112</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>91346</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>86500</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>97257</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>89770</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>91458</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>108596</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>112047</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>87675</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>98015</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>110192</v>
       </c>
       <c r="BG7" t="n">
         <v>108180</v>
@@ -1863,11 +1839,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ativos Biológicos</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>0</v>
       </c>
@@ -2050,11 +2022,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Tributos a Recuperar</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="n">
         <v>0</v>
       </c>
@@ -2170,61 +2138,61 @@
         <v>11885</v>
       </c>
       <c r="AN9" t="n">
-        <v>2403</v>
+        <v>7931</v>
       </c>
       <c r="AO9" t="n">
-        <v>2595</v>
+        <v>5867</v>
       </c>
       <c r="AP9" t="n">
-        <v>2549</v>
+        <v>6054</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1048</v>
+        <v>7357</v>
       </c>
       <c r="AR9" t="n">
-        <v>1431</v>
+        <v>7327</v>
       </c>
       <c r="AS9" t="n">
-        <v>1636</v>
+        <v>36085</v>
       </c>
       <c r="AT9" t="n">
-        <v>5498</v>
+        <v>32374</v>
       </c>
       <c r="AU9" t="n">
-        <v>2637</v>
+        <v>19986</v>
       </c>
       <c r="AV9" t="n">
-        <v>21817</v>
+        <v>7673</v>
       </c>
       <c r="AW9" t="n">
-        <v>23178</v>
+        <v>7682</v>
       </c>
       <c r="AX9" t="n">
-        <v>23001</v>
+        <v>38697</v>
       </c>
       <c r="AY9" t="n">
-        <v>34369</v>
+        <v>53044</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29688</v>
+        <v>57022</v>
       </c>
       <c r="BA9" t="n">
-        <v>22498</v>
+        <v>60933</v>
       </c>
       <c r="BB9" t="n">
-        <v>34814</v>
+        <v>68631</v>
       </c>
       <c r="BC9" t="n">
-        <v>37413</v>
+        <v>58051</v>
       </c>
       <c r="BD9" t="n">
-        <v>71472</v>
+        <v>58543</v>
       </c>
       <c r="BE9" t="n">
-        <v>67707</v>
+        <v>61193</v>
       </c>
       <c r="BF9" t="n">
-        <v>77297</v>
+        <v>61458</v>
       </c>
       <c r="BG9" t="n">
         <v>60256</v>
@@ -2237,11 +2205,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Despesas Antecipadas</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>0</v>
       </c>
@@ -2357,61 +2321,61 @@
         <v>3453</v>
       </c>
       <c r="AN10" t="n">
-        <v>6446</v>
+        <v>2242</v>
       </c>
       <c r="AO10" t="n">
-        <v>5423</v>
+        <v>3461</v>
       </c>
       <c r="AP10" t="n">
-        <v>10732</v>
+        <v>2296</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15480</v>
+        <v>2004</v>
       </c>
       <c r="AR10" t="n">
-        <v>14465</v>
+        <v>1334</v>
       </c>
       <c r="AS10" t="n">
-        <v>15954</v>
+        <v>3750</v>
       </c>
       <c r="AT10" t="n">
-        <v>20725</v>
+        <v>3244</v>
       </c>
       <c r="AU10" t="n">
-        <v>16105</v>
+        <v>2222</v>
       </c>
       <c r="AV10" t="n">
-        <v>13188</v>
+        <v>2162</v>
       </c>
       <c r="AW10" t="n">
-        <v>12270</v>
+        <v>4438</v>
       </c>
       <c r="AX10" t="n">
-        <v>14664</v>
+        <v>4182</v>
       </c>
       <c r="AY10" t="n">
-        <v>13190</v>
+        <v>3106</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11785</v>
+        <v>3806</v>
       </c>
       <c r="BA10" t="n">
-        <v>12724</v>
+        <v>4148</v>
       </c>
       <c r="BB10" t="n">
-        <v>18493</v>
+        <v>3131</v>
       </c>
       <c r="BC10" t="n">
-        <v>16978</v>
+        <v>2845</v>
       </c>
       <c r="BD10" t="n">
-        <v>15287</v>
+        <v>3749</v>
       </c>
       <c r="BE10" t="n">
-        <v>13221</v>
+        <v>4998</v>
       </c>
       <c r="BF10" t="n">
-        <v>17716</v>
+        <v>9091</v>
       </c>
       <c r="BG10" t="n">
         <v>8108</v>
@@ -2424,11 +2388,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Outros Ativos Circulantes</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>1389</v>
       </c>
@@ -2544,61 +2504,61 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1989</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1934</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>1334</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2284</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>2708</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>1508</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>2910</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>1252</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2704</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>1642</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>2797</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>3581</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>185547.008</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>185343.008</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>3133</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
         <v>0</v>
@@ -2611,11 +2571,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ativo Realizável a Longo Prazo</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
         <v>70671</v>
       </c>
@@ -2731,61 +2687,61 @@
         <v>53297</v>
       </c>
       <c r="AN12" t="n">
-        <v>33262</v>
+        <v>54919</v>
       </c>
       <c r="AO12" t="n">
-        <v>29293</v>
+        <v>65113</v>
       </c>
       <c r="AP12" t="n">
-        <v>29138</v>
+        <v>68363</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25769</v>
+        <v>63650</v>
       </c>
       <c r="AR12" t="n">
-        <v>34494</v>
+        <v>110953</v>
       </c>
       <c r="AS12" t="n">
-        <v>41685</v>
+        <v>113009</v>
       </c>
       <c r="AT12" t="n">
-        <v>45912</v>
+        <v>116007</v>
       </c>
       <c r="AU12" t="n">
-        <v>64405</v>
+        <v>120457</v>
       </c>
       <c r="AV12" t="n">
-        <v>52992</v>
+        <v>111643</v>
       </c>
       <c r="AW12" t="n">
-        <v>60929</v>
+        <v>115200</v>
       </c>
       <c r="AX12" t="n">
-        <v>73869</v>
+        <v>255574</v>
       </c>
       <c r="AY12" t="n">
-        <v>59178</v>
+        <v>257848.992</v>
       </c>
       <c r="AZ12" t="n">
-        <v>53159</v>
+        <v>199578</v>
       </c>
       <c r="BA12" t="n">
-        <v>63272</v>
+        <v>187412</v>
       </c>
       <c r="BB12" t="n">
-        <v>72321</v>
+        <v>184304</v>
       </c>
       <c r="BC12" t="n">
-        <v>85773</v>
+        <v>204304.992</v>
       </c>
       <c r="BD12" t="n">
-        <v>82933</v>
+        <v>174432</v>
       </c>
       <c r="BE12" t="n">
-        <v>86511</v>
+        <v>157676</v>
       </c>
       <c r="BF12" t="n">
-        <v>72519</v>
+        <v>168326</v>
       </c>
       <c r="BG12" t="n">
         <v>184564</v>
@@ -2798,11 +2754,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Aplicações Financeiras Avaliadas a Valor Justo</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
         <v>0</v>
       </c>
@@ -2942,37 +2894,37 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>2942</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>3204</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>3603</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>4479</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>2659</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>7587</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>5061</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="BG13" t="n">
         <v>8072</v>
@@ -2985,11 +2937,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Aplicações Financeiras Avaliadas ao Custo Amortizado</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>0</v>
       </c>
@@ -3105,28 +3053,28 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>7323</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>7027</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>3417</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -3172,11 +3120,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Contas a Receber</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
         <v>9547</v>
       </c>
@@ -3359,11 +3303,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Estoques</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
         <v>0</v>
       </c>
@@ -3479,61 +3419,61 @@
         <v>6623</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>6717</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>6807</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>6903</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>6997</v>
       </c>
       <c r="AR16" t="n">
-        <v>6912</v>
+        <v>8031</v>
       </c>
       <c r="AS16" t="n">
-        <v>16458</v>
+        <v>9293</v>
       </c>
       <c r="AT16" t="n">
-        <v>16036</v>
+        <v>9310</v>
       </c>
       <c r="AU16" t="n">
-        <v>14670</v>
+        <v>9314</v>
       </c>
       <c r="AV16" t="n">
-        <v>14232</v>
+        <v>9378</v>
       </c>
       <c r="AW16" t="n">
-        <v>13786</v>
+        <v>9316</v>
       </c>
       <c r="AX16" t="n">
-        <v>13331</v>
+        <v>9056</v>
       </c>
       <c r="AY16" t="n">
-        <v>11871</v>
+        <v>8715</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11399</v>
+        <v>5295</v>
       </c>
       <c r="BA16" t="n">
-        <v>10918</v>
+        <v>4278</v>
       </c>
       <c r="BB16" t="n">
-        <v>10427</v>
+        <v>3521</v>
       </c>
       <c r="BC16" t="n">
-        <v>8867</v>
+        <v>3684</v>
       </c>
       <c r="BD16" t="n">
-        <v>8358</v>
+        <v>3835</v>
       </c>
       <c r="BE16" t="n">
-        <v>7839</v>
+        <v>3995</v>
       </c>
       <c r="BF16" t="n">
-        <v>7336</v>
+        <v>4150</v>
       </c>
       <c r="BG16" t="n">
         <v>4306</v>
@@ -3546,11 +3486,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ativos Biológicos</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
         <v>0</v>
       </c>
@@ -3733,11 +3669,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Tributos Diferidos</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
         <v>0</v>
       </c>
@@ -3920,11 +3852,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Despesas Antecipadas</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
         <v>0</v>
       </c>
@@ -4040,61 +3968,61 @@
         <v>25039</v>
       </c>
       <c r="AN19" t="n">
-        <v>26968</v>
+        <v>29974</v>
       </c>
       <c r="AO19" t="n">
-        <v>22928</v>
+        <v>30345</v>
       </c>
       <c r="AP19" t="n">
-        <v>22040</v>
+        <v>30715</v>
       </c>
       <c r="AQ19" t="n">
-        <v>18113</v>
+        <v>31085</v>
       </c>
       <c r="AR19" t="n">
-        <v>18945</v>
+        <v>75892</v>
       </c>
       <c r="AS19" t="n">
-        <v>15801</v>
+        <v>75905</v>
       </c>
       <c r="AT19" t="n">
-        <v>20363</v>
+        <v>75917</v>
       </c>
       <c r="AU19" t="n">
-        <v>39015</v>
+        <v>75929</v>
       </c>
       <c r="AV19" t="n">
-        <v>22157</v>
+        <v>75940</v>
       </c>
       <c r="AW19" t="n">
-        <v>18785</v>
+        <v>75952</v>
       </c>
       <c r="AX19" t="n">
-        <v>27852</v>
+        <v>29933</v>
       </c>
       <c r="AY19" t="n">
-        <v>32779</v>
+        <v>29943</v>
       </c>
       <c r="AZ19" t="n">
-        <v>24517</v>
+        <v>1104</v>
       </c>
       <c r="BA19" t="n">
-        <v>34035</v>
+        <v>99</v>
       </c>
       <c r="BB19" t="n">
-        <v>42257</v>
+        <v>2726</v>
       </c>
       <c r="BC19" t="n">
-        <v>50374</v>
+        <v>33722</v>
       </c>
       <c r="BD19" t="n">
-        <v>46019</v>
+        <v>32221</v>
       </c>
       <c r="BE19" t="n">
-        <v>48828</v>
+        <v>27291</v>
       </c>
       <c r="BF19" t="n">
-        <v>21219</v>
+        <v>49879</v>
       </c>
       <c r="BG19" t="n">
         <v>72805</v>
@@ -4107,11 +4035,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Créditos com Partes Relacionadas</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
         <v>0</v>
       </c>
@@ -4294,11 +4218,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Outros Ativos Não Circulantes</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
         <v>61124</v>
       </c>
@@ -4481,11 +4401,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Investimentos</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>0</v>
       </c>
@@ -4655,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>179438</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
         <v>0</v>
@@ -4668,11 +4584,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Imobilizado</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>197766</v>
       </c>
@@ -4788,61 +4700,61 @@
         <v>295046.016</v>
       </c>
       <c r="AN23" t="n">
-        <v>12002</v>
+        <v>283510.016</v>
       </c>
       <c r="AO23" t="n">
-        <v>22779</v>
+        <v>278903.008</v>
       </c>
       <c r="AP23" t="n">
-        <v>23524</v>
+        <v>276232.992</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27367</v>
+        <v>273030.016</v>
       </c>
       <c r="AR23" t="n">
-        <v>27706</v>
+        <v>270716.992</v>
       </c>
       <c r="AS23" t="n">
-        <v>31557</v>
+        <v>269679.008</v>
       </c>
       <c r="AT23" t="n">
-        <v>30861</v>
+        <v>271692.992</v>
       </c>
       <c r="AU23" t="n">
-        <v>29796</v>
+        <v>269944.992</v>
       </c>
       <c r="AV23" t="n">
-        <v>32534</v>
+        <v>272360.992</v>
       </c>
       <c r="AW23" t="n">
-        <v>32014</v>
+        <v>272118.016</v>
       </c>
       <c r="AX23" t="n">
-        <v>29941</v>
+        <v>272003.008</v>
       </c>
       <c r="AY23" t="n">
-        <v>29394</v>
+        <v>269100</v>
       </c>
       <c r="AZ23" t="n">
-        <v>27102</v>
+        <v>270459.008</v>
       </c>
       <c r="BA23" t="n">
-        <v>25390</v>
+        <v>266996</v>
       </c>
       <c r="BB23" t="n">
-        <v>23461</v>
+        <v>265643.008</v>
       </c>
       <c r="BC23" t="n">
-        <v>22572</v>
+        <v>265236.992</v>
       </c>
       <c r="BD23" t="n">
-        <v>14879</v>
+        <v>269649.984</v>
       </c>
       <c r="BE23" t="n">
-        <v>13555</v>
+        <v>269056.992</v>
       </c>
       <c r="BF23" t="n">
-        <v>12176</v>
+        <v>274272.992</v>
       </c>
       <c r="BG23" t="n">
         <v>272686.016</v>
@@ -4855,11 +4767,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Intangível</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
         <v>14793</v>
       </c>
@@ -4975,61 +4883,61 @@
         <v>13521</v>
       </c>
       <c r="AN24" t="n">
-        <v>497224</v>
+        <v>12633</v>
       </c>
       <c r="AO24" t="n">
-        <v>493804</v>
+        <v>11922</v>
       </c>
       <c r="AP24" t="n">
-        <v>509123.008</v>
+        <v>12125</v>
       </c>
       <c r="AQ24" t="n">
-        <v>514904.992</v>
+        <v>11487</v>
       </c>
       <c r="AR24" t="n">
-        <v>542006.976</v>
+        <v>5729</v>
       </c>
       <c r="AS24" t="n">
-        <v>547105.024</v>
+        <v>4885</v>
       </c>
       <c r="AT24" t="n">
-        <v>543652.992</v>
+        <v>5385</v>
       </c>
       <c r="AU24" t="n">
-        <v>546609.9840000001</v>
+        <v>8393</v>
       </c>
       <c r="AV24" t="n">
-        <v>891913.9840000001</v>
+        <v>8097</v>
       </c>
       <c r="AW24" t="n">
-        <v>886784</v>
+        <v>7946</v>
       </c>
       <c r="AX24" t="n">
-        <v>883220.992</v>
+        <v>7754</v>
       </c>
       <c r="AY24" t="n">
-        <v>1089116.032</v>
+        <v>8151</v>
       </c>
       <c r="AZ24" t="n">
-        <v>900926.0159999999</v>
+        <v>8572</v>
       </c>
       <c r="BA24" t="n">
-        <v>911529.9840000001</v>
+        <v>7971</v>
       </c>
       <c r="BB24" t="n">
-        <v>925105.024</v>
+        <v>7840</v>
       </c>
       <c r="BC24" t="n">
-        <v>944099.968</v>
+        <v>8644</v>
       </c>
       <c r="BD24" t="n">
-        <v>813219.008</v>
+        <v>7578</v>
       </c>
       <c r="BE24" t="n">
-        <v>831188.992</v>
+        <v>6596</v>
       </c>
       <c r="BF24" t="n">
-        <v>843331.008</v>
+        <v>6015</v>
       </c>
       <c r="BG24" t="n">
         <v>5518</v>
@@ -5042,11 +4950,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Diferido</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
         <v>0</v>
       </c>
@@ -5229,11 +5133,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Passivo Total</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
         <v>470479.008</v>
       </c>
@@ -5349,61 +5249,61 @@
         <v>635641.9840000001</v>
       </c>
       <c r="AN26" t="n">
-        <v>767200</v>
+        <v>631662.0159999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>754953.9840000001</v>
+        <v>604803.968</v>
       </c>
       <c r="AP26" t="n">
-        <v>757574.0159999999</v>
+        <v>608419.968</v>
       </c>
       <c r="AQ26" t="n">
-        <v>765795.968</v>
+        <v>593774.976</v>
       </c>
       <c r="AR26" t="n">
-        <v>778414.976</v>
+        <v>657593.024</v>
       </c>
       <c r="AS26" t="n">
-        <v>780059.008</v>
+        <v>679553.9840000001</v>
       </c>
       <c r="AT26" t="n">
-        <v>873484.992</v>
+        <v>697667.008</v>
       </c>
       <c r="AU26" t="n">
-        <v>894512</v>
+        <v>665953.024</v>
       </c>
       <c r="AV26" t="n">
-        <v>2427187.968</v>
+        <v>674947.008</v>
       </c>
       <c r="AW26" t="n">
-        <v>2424688.128</v>
+        <v>647833.024</v>
       </c>
       <c r="AX26" t="n">
-        <v>2469393.92</v>
+        <v>847868.992</v>
       </c>
       <c r="AY26" t="n">
-        <v>2582820.096</v>
+        <v>883825.9840000001</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2409870.08</v>
+        <v>852329.9840000001</v>
       </c>
       <c r="BA26" t="n">
-        <v>2485556.992</v>
+        <v>839660.032</v>
       </c>
       <c r="BB26" t="n">
-        <v>2524328.96</v>
+        <v>864840</v>
       </c>
       <c r="BC26" t="n">
-        <v>2584578.048</v>
+        <v>904491.008</v>
       </c>
       <c r="BD26" t="n">
-        <v>2698596.096</v>
+        <v>864393.024</v>
       </c>
       <c r="BE26" t="n">
-        <v>2758128.896</v>
+        <v>878003.008</v>
       </c>
       <c r="BF26" t="n">
-        <v>2479572.992</v>
+        <v>850708.992</v>
       </c>
       <c r="BG26" t="n">
         <v>900800</v>
@@ -5416,11 +5316,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Passivo Circulante</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
         <v>266432.992</v>
       </c>
@@ -5536,61 +5432,61 @@
         <v>461860</v>
       </c>
       <c r="AN27" t="n">
-        <v>145140</v>
+        <v>515776</v>
       </c>
       <c r="AO27" t="n">
-        <v>141307.008</v>
+        <v>485415.008</v>
       </c>
       <c r="AP27" t="n">
-        <v>133864</v>
+        <v>499463.008</v>
       </c>
       <c r="AQ27" t="n">
-        <v>140102</v>
+        <v>457761.984</v>
       </c>
       <c r="AR27" t="n">
-        <v>251544</v>
+        <v>470028.992</v>
       </c>
       <c r="AS27" t="n">
-        <v>248120</v>
+        <v>477039.008</v>
       </c>
       <c r="AT27" t="n">
-        <v>325640</v>
+        <v>492743.008</v>
       </c>
       <c r="AU27" t="n">
-        <v>399071.008</v>
+        <v>457336.992</v>
       </c>
       <c r="AV27" t="n">
-        <v>200230</v>
+        <v>489600.992</v>
       </c>
       <c r="AW27" t="n">
-        <v>193594</v>
+        <v>478283.008</v>
       </c>
       <c r="AX27" t="n">
-        <v>179996.992</v>
+        <v>549790.0159999999</v>
       </c>
       <c r="AY27" t="n">
-        <v>182544.992</v>
+        <v>602196.992</v>
       </c>
       <c r="AZ27" t="n">
-        <v>196604.992</v>
+        <v>657328</v>
       </c>
       <c r="BA27" t="n">
-        <v>209067.008</v>
+        <v>625401.024</v>
       </c>
       <c r="BB27" t="n">
-        <v>278468</v>
+        <v>649001.9840000001</v>
       </c>
       <c r="BC27" t="n">
-        <v>290846.016</v>
+        <v>680636.032</v>
       </c>
       <c r="BD27" t="n">
-        <v>435160</v>
+        <v>632142.976</v>
       </c>
       <c r="BE27" t="n">
-        <v>438192</v>
+        <v>591361.024</v>
       </c>
       <c r="BF27" t="n">
-        <v>110954</v>
+        <v>525923.008</v>
       </c>
       <c r="BG27" t="n">
         <v>524300</v>
@@ -5603,11 +5499,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Obrigações Sociais e Trabalhistas</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>0</v>
       </c>
@@ -5723,61 +5615,61 @@
         <v>24819</v>
       </c>
       <c r="AN28" t="n">
-        <v>25274</v>
+        <v>18967</v>
       </c>
       <c r="AO28" t="n">
-        <v>26995</v>
+        <v>21224</v>
       </c>
       <c r="AP28" t="n">
-        <v>21917</v>
+        <v>25779</v>
       </c>
       <c r="AQ28" t="n">
-        <v>29304</v>
+        <v>30271</v>
       </c>
       <c r="AR28" t="n">
-        <v>29747</v>
+        <v>21513</v>
       </c>
       <c r="AS28" t="n">
-        <v>34377</v>
+        <v>23868</v>
       </c>
       <c r="AT28" t="n">
-        <v>34935</v>
+        <v>32071</v>
       </c>
       <c r="AU28" t="n">
-        <v>39158</v>
+        <v>34713</v>
       </c>
       <c r="AV28" t="n">
-        <v>30038</v>
+        <v>23430</v>
       </c>
       <c r="AW28" t="n">
-        <v>32167</v>
+        <v>24390</v>
       </c>
       <c r="AX28" t="n">
-        <v>29026</v>
+        <v>24922</v>
       </c>
       <c r="AY28" t="n">
-        <v>43713</v>
+        <v>27745</v>
       </c>
       <c r="AZ28" t="n">
-        <v>28847</v>
+        <v>20471</v>
       </c>
       <c r="BA28" t="n">
-        <v>42290</v>
+        <v>21798</v>
       </c>
       <c r="BB28" t="n">
-        <v>97781</v>
+        <v>26491</v>
       </c>
       <c r="BC28" t="n">
-        <v>123013</v>
+        <v>32815</v>
       </c>
       <c r="BD28" t="n">
-        <v>131901</v>
+        <v>33336</v>
       </c>
       <c r="BE28" t="n">
-        <v>155268.992</v>
+        <v>24785</v>
       </c>
       <c r="BF28" t="n">
-        <v>50423</v>
+        <v>31267</v>
       </c>
       <c r="BG28" t="n">
         <v>36980</v>
@@ -5790,11 +5682,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Fornecedores</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
         <v>54677</v>
       </c>
@@ -5910,61 +5798,61 @@
         <v>123840</v>
       </c>
       <c r="AN29" t="n">
-        <v>39394</v>
+        <v>125031</v>
       </c>
       <c r="AO29" t="n">
-        <v>30028</v>
+        <v>109133</v>
       </c>
       <c r="AP29" t="n">
-        <v>39491</v>
+        <v>126635</v>
       </c>
       <c r="AQ29" t="n">
-        <v>35459</v>
+        <v>106864</v>
       </c>
       <c r="AR29" t="n">
-        <v>40714</v>
+        <v>111665</v>
       </c>
       <c r="AS29" t="n">
-        <v>38538</v>
+        <v>143412</v>
       </c>
       <c r="AT29" t="n">
-        <v>36525</v>
+        <v>160671.008</v>
       </c>
       <c r="AU29" t="n">
-        <v>33647</v>
+        <v>151724</v>
       </c>
       <c r="AV29" t="n">
-        <v>41177</v>
+        <v>172008</v>
       </c>
       <c r="AW29" t="n">
-        <v>43998</v>
+        <v>143908</v>
       </c>
       <c r="AX29" t="n">
-        <v>48043</v>
+        <v>182891.008</v>
       </c>
       <c r="AY29" t="n">
-        <v>34424</v>
+        <v>213470</v>
       </c>
       <c r="AZ29" t="n">
-        <v>31273</v>
+        <v>235494</v>
       </c>
       <c r="BA29" t="n">
-        <v>43871</v>
+        <v>248498</v>
       </c>
       <c r="BB29" t="n">
-        <v>46498</v>
+        <v>252372.992</v>
       </c>
       <c r="BC29" t="n">
-        <v>47447</v>
+        <v>248422</v>
       </c>
       <c r="BD29" t="n">
-        <v>45637</v>
+        <v>177379.008</v>
       </c>
       <c r="BE29" t="n">
-        <v>45160</v>
+        <v>168878</v>
       </c>
       <c r="BF29" t="n">
-        <v>43261</v>
+        <v>157586</v>
       </c>
       <c r="BG29" t="n">
         <v>158788</v>
@@ -5977,11 +5865,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Obrigações Fiscais</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
         <v>94919</v>
       </c>
@@ -6097,61 +5981,61 @@
         <v>64546</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>62237</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>53415</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>50503</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>53764</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>52823</v>
       </c>
       <c r="AS30" t="n">
-        <v>8488</v>
+        <v>50035</v>
       </c>
       <c r="AT30" t="n">
-        <v>8422</v>
+        <v>47410</v>
       </c>
       <c r="AU30" t="n">
-        <v>21338</v>
+        <v>52377</v>
       </c>
       <c r="AV30" t="n">
-        <v>5823</v>
+        <v>44006</v>
       </c>
       <c r="AW30" t="n">
-        <v>8151</v>
+        <v>43053</v>
       </c>
       <c r="AX30" t="n">
-        <v>13059</v>
+        <v>40585</v>
       </c>
       <c r="AY30" t="n">
-        <v>15450</v>
+        <v>44283</v>
       </c>
       <c r="AZ30" t="n">
-        <v>13616</v>
+        <v>49295</v>
       </c>
       <c r="BA30" t="n">
-        <v>18130</v>
+        <v>53321</v>
       </c>
       <c r="BB30" t="n">
-        <v>22317</v>
+        <v>49621</v>
       </c>
       <c r="BC30" t="n">
-        <v>23109</v>
+        <v>79402</v>
       </c>
       <c r="BD30" t="n">
-        <v>24355</v>
+        <v>72674</v>
       </c>
       <c r="BE30" t="n">
-        <v>14291</v>
+        <v>69010</v>
       </c>
       <c r="BF30" t="n">
-        <v>8030</v>
+        <v>58098</v>
       </c>
       <c r="BG30" t="n">
         <v>59657</v>
@@ -6164,11 +6048,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Empréstimos e Financiamentos</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
         <v>41360</v>
       </c>
@@ -6284,61 +6164,61 @@
         <v>220520.992</v>
       </c>
       <c r="AN31" t="n">
-        <v>42271</v>
+        <v>270416.992</v>
       </c>
       <c r="AO31" t="n">
-        <v>50371</v>
+        <v>261310</v>
       </c>
       <c r="AP31" t="n">
-        <v>55871</v>
+        <v>266644</v>
       </c>
       <c r="AQ31" t="n">
-        <v>65671</v>
+        <v>241538</v>
       </c>
       <c r="AR31" t="n">
-        <v>141200.992</v>
+        <v>257202</v>
       </c>
       <c r="AS31" t="n">
-        <v>141904</v>
+        <v>221860.992</v>
       </c>
       <c r="AT31" t="n">
-        <v>219506</v>
+        <v>213720.992</v>
       </c>
       <c r="AU31" t="n">
-        <v>224220.992</v>
+        <v>181384</v>
       </c>
       <c r="AV31" t="n">
-        <v>98123</v>
+        <v>219908</v>
       </c>
       <c r="AW31" t="n">
-        <v>88238</v>
+        <v>232432.992</v>
       </c>
       <c r="AX31" t="n">
-        <v>78879</v>
+        <v>266432</v>
       </c>
       <c r="AY31" t="n">
-        <v>75306</v>
+        <v>279448</v>
       </c>
       <c r="AZ31" t="n">
-        <v>72971</v>
+        <v>281600</v>
       </c>
       <c r="BA31" t="n">
-        <v>56084</v>
+        <v>238552</v>
       </c>
       <c r="BB31" t="n">
-        <v>39071</v>
+        <v>261776</v>
       </c>
       <c r="BC31" t="n">
-        <v>20954</v>
+        <v>261948</v>
       </c>
       <c r="BD31" t="n">
-        <v>3254</v>
+        <v>307894.016</v>
       </c>
       <c r="BE31" t="n">
-        <v>3435</v>
+        <v>297152</v>
       </c>
       <c r="BF31" t="n">
-        <v>3670</v>
+        <v>252976</v>
       </c>
       <c r="BG31" t="n">
         <v>235636.992</v>
@@ -6351,11 +6231,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Passivos com Partes Relacionadas</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>0</v>
       </c>
@@ -6471,61 +6347,61 @@
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>1720</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>1235</v>
+        <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>36</v>
+        <v>6928</v>
       </c>
       <c r="AT32" t="n">
-        <v>119</v>
+        <v>6928</v>
       </c>
       <c r="AU32" t="n">
-        <v>211</v>
+        <v>6928</v>
       </c>
       <c r="AV32" t="n">
-        <v>0</v>
+        <v>6928</v>
       </c>
       <c r="AW32" t="n">
-        <v>0</v>
+        <v>6928</v>
       </c>
       <c r="AX32" t="n">
-        <v>544</v>
+        <v>6928</v>
       </c>
       <c r="AY32" t="n">
-        <v>412</v>
+        <v>6928</v>
       </c>
       <c r="AZ32" t="n">
-        <v>125</v>
+        <v>19330</v>
       </c>
       <c r="BA32" t="n">
-        <v>0</v>
+        <v>20004</v>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>20714</v>
       </c>
       <c r="BC32" t="n">
-        <v>1650</v>
+        <v>21464</v>
       </c>
       <c r="BD32" t="n">
-        <v>5357</v>
+        <v>0</v>
       </c>
       <c r="BE32" t="n">
         <v>0</v>
       </c>
       <c r="BF32" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BG32" t="n">
         <v>0</v>
@@ -6538,11 +6414,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Dividendos e JCP a Pagar</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
         <v>0</v>
       </c>
@@ -6658,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>11184</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>11184</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -6670,22 +6542,22 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>20537</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>20537</v>
+        <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>20537</v>
+        <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>20537</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>11086</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>11086</v>
+        <v>0</v>
       </c>
       <c r="AX33" t="n">
         <v>0</v>
@@ -6694,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>38169</v>
+        <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>38169</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
         <v>0</v>
@@ -6706,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>120900</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
-        <v>120900</v>
+        <v>0</v>
       </c>
       <c r="BF33" t="n">
         <v>0</v>
@@ -6725,11 +6597,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
         <v>75477</v>
       </c>
@@ -6845,61 +6713,61 @@
         <v>19554</v>
       </c>
       <c r="AN34" t="n">
-        <v>18940</v>
+        <v>27210</v>
       </c>
       <c r="AO34" t="n">
-        <v>15166</v>
+        <v>25513</v>
       </c>
       <c r="AP34" t="n">
-        <v>8835</v>
+        <v>18277</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2997</v>
+        <v>12059</v>
       </c>
       <c r="AR34" t="n">
-        <v>7173</v>
+        <v>13765</v>
       </c>
       <c r="AS34" t="n">
-        <v>4240</v>
+        <v>13079</v>
       </c>
       <c r="AT34" t="n">
-        <v>5596</v>
+        <v>12016</v>
       </c>
       <c r="AU34" t="n">
-        <v>59959</v>
+        <v>13362</v>
       </c>
       <c r="AV34" t="n">
-        <v>13983</v>
+        <v>13344</v>
       </c>
       <c r="AW34" t="n">
-        <v>9954</v>
+        <v>17481</v>
       </c>
       <c r="AX34" t="n">
-        <v>10446</v>
+        <v>15236</v>
       </c>
       <c r="AY34" t="n">
-        <v>13240</v>
+        <v>21191</v>
       </c>
       <c r="AZ34" t="n">
-        <v>11604</v>
+        <v>25414</v>
       </c>
       <c r="BA34" t="n">
-        <v>10523</v>
+        <v>26854</v>
       </c>
       <c r="BB34" t="n">
-        <v>72801</v>
+        <v>26553</v>
       </c>
       <c r="BC34" t="n">
-        <v>74673</v>
+        <v>26764</v>
       </c>
       <c r="BD34" t="n">
-        <v>81188</v>
+        <v>31984</v>
       </c>
       <c r="BE34" t="n">
-        <v>88250</v>
+        <v>19858</v>
       </c>
       <c r="BF34" t="n">
-        <v>5450</v>
+        <v>17685</v>
       </c>
       <c r="BG34" t="n">
         <v>23509</v>
@@ -6912,11 +6780,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Provisões</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
         <v>0</v>
       </c>
@@ -7032,61 +6896,61 @@
         <v>8580</v>
       </c>
       <c r="AN35" t="n">
-        <v>6357</v>
+        <v>11914</v>
       </c>
       <c r="AO35" t="n">
-        <v>6328</v>
+        <v>14820</v>
       </c>
       <c r="AP35" t="n">
-        <v>7001</v>
+        <v>11625</v>
       </c>
       <c r="AQ35" t="n">
-        <v>6186</v>
+        <v>13266</v>
       </c>
       <c r="AR35" t="n">
-        <v>12172</v>
+        <v>13061</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>17856</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>19926</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>16849</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>9977</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>10090</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>12796</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>9132</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>25724</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>16374</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>11474</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>9821</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>8876</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>11678</v>
       </c>
       <c r="BF35" t="n">
-        <v>0</v>
+        <v>8311</v>
       </c>
       <c r="BG35" t="n">
         <v>9729</v>
@@ -7099,11 +6963,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>0</v>
       </c>
@@ -7267,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>22568</v>
+        <v>0</v>
       </c>
       <c r="BE36" t="n">
-        <v>10887</v>
+        <v>0</v>
       </c>
       <c r="BF36" t="n">
         <v>0</v>
@@ -7286,11 +7146,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Passivo Não Circulante</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
         <v>679571.968</v>
       </c>
@@ -7406,61 +7262,61 @@
         <v>369113.984</v>
       </c>
       <c r="AN37" t="n">
-        <v>240260</v>
+        <v>357275.008</v>
       </c>
       <c r="AO37" t="n">
-        <v>220994</v>
+        <v>366287.008</v>
       </c>
       <c r="AP37" t="n">
-        <v>210895.008</v>
+        <v>374595.008</v>
       </c>
       <c r="AQ37" t="n">
-        <v>193079.008</v>
+        <v>415747.008</v>
       </c>
       <c r="AR37" t="n">
-        <v>175927.008</v>
+        <v>472680.992</v>
       </c>
       <c r="AS37" t="n">
-        <v>161316</v>
+        <v>461036</v>
       </c>
       <c r="AT37" t="n">
-        <v>173712.992</v>
+        <v>459536</v>
       </c>
       <c r="AU37" t="n">
-        <v>162232</v>
+        <v>449891.008</v>
       </c>
       <c r="AV37" t="n">
-        <v>429008</v>
+        <v>430507.008</v>
       </c>
       <c r="AW37" t="n">
-        <v>415747.008</v>
+        <v>441007.008</v>
       </c>
       <c r="AX37" t="n">
-        <v>402265.984</v>
+        <v>413000.992</v>
       </c>
       <c r="AY37" t="n">
-        <v>398304</v>
+        <v>396460</v>
       </c>
       <c r="AZ37" t="n">
-        <v>167998</v>
+        <v>373256.992</v>
       </c>
       <c r="BA37" t="n">
-        <v>179620.992</v>
+        <v>417208.992</v>
       </c>
       <c r="BB37" t="n">
-        <v>77386</v>
+        <v>410841.984</v>
       </c>
       <c r="BC37" t="n">
-        <v>78530</v>
+        <v>403143.008</v>
       </c>
       <c r="BD37" t="n">
-        <v>64212</v>
+        <v>387921.984</v>
       </c>
       <c r="BE37" t="n">
-        <v>81491</v>
+        <v>423424.992</v>
       </c>
       <c r="BF37" t="n">
-        <v>69853</v>
+        <v>441956</v>
       </c>
       <c r="BG37" t="n">
         <v>448447.008</v>
@@ -7473,11 +7329,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Empréstimos e Financiamentos</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
         <v>13213</v>
       </c>
@@ -7593,61 +7445,61 @@
         <v>30866</v>
       </c>
       <c r="AN38" t="n">
-        <v>220051.008</v>
+        <v>24051</v>
       </c>
       <c r="AO38" t="n">
-        <v>198400.992</v>
+        <v>21488</v>
       </c>
       <c r="AP38" t="n">
-        <v>186923.008</v>
+        <v>18376</v>
       </c>
       <c r="AQ38" t="n">
-        <v>167482</v>
+        <v>60957</v>
       </c>
       <c r="AR38" t="n">
-        <v>149478</v>
+        <v>62986</v>
       </c>
       <c r="AS38" t="n">
-        <v>132924</v>
+        <v>51791</v>
       </c>
       <c r="AT38" t="n">
-        <v>143971.008</v>
+        <v>50384</v>
       </c>
       <c r="AU38" t="n">
-        <v>132062</v>
+        <v>46876</v>
       </c>
       <c r="AV38" t="n">
-        <v>82070</v>
+        <v>48438</v>
       </c>
       <c r="AW38" t="n">
-        <v>62768</v>
+        <v>61198</v>
       </c>
       <c r="AX38" t="n">
-        <v>44343</v>
+        <v>47218</v>
       </c>
       <c r="AY38" t="n">
-        <v>34591</v>
+        <v>36583</v>
       </c>
       <c r="AZ38" t="n">
-        <v>13963</v>
+        <v>44438</v>
       </c>
       <c r="BA38" t="n">
-        <v>12381</v>
+        <v>93191</v>
       </c>
       <c r="BB38" t="n">
-        <v>10641</v>
+        <v>94135</v>
       </c>
       <c r="BC38" t="n">
-        <v>10412</v>
+        <v>105920</v>
       </c>
       <c r="BD38" t="n">
-        <v>6571</v>
+        <v>93778</v>
       </c>
       <c r="BE38" t="n">
-        <v>5681</v>
+        <v>133611</v>
       </c>
       <c r="BF38" t="n">
-        <v>4755</v>
+        <v>165986</v>
       </c>
       <c r="BG38" t="n">
         <v>184392.992</v>
@@ -7660,11 +7512,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Passivos com Partes Relacionadas</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
         <v>208</v>
       </c>
@@ -7780,40 +7628,40 @@
         <v>27712</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>27712</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>27712</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>27712</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>28486</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>28904</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>22418</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
+        <v>22883</v>
       </c>
       <c r="AU39" t="n">
-        <v>0</v>
+        <v>23374</v>
       </c>
       <c r="AV39" t="n">
-        <v>0</v>
+        <v>16963</v>
       </c>
       <c r="AW39" t="n">
-        <v>0</v>
+        <v>17509</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>18084</v>
       </c>
       <c r="AY39" t="n">
-        <v>0</v>
+        <v>18690</v>
       </c>
       <c r="AZ39" t="n">
         <v>0</v>
@@ -7847,11 +7695,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
         <v>666150.976</v>
       </c>
@@ -7967,61 +7811,61 @@
         <v>259900.992</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>254562</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>264443.008</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>259996</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>258448</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>267856.992</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>266208</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>267040</v>
       </c>
       <c r="AU40" t="n">
-        <v>0</v>
+        <v>264218</v>
       </c>
       <c r="AV40" t="n">
-        <v>315944.992</v>
+        <v>249652</v>
       </c>
       <c r="AW40" t="n">
-        <v>319780.992</v>
+        <v>248223.008</v>
       </c>
       <c r="AX40" t="n">
-        <v>323335.008</v>
+        <v>233530</v>
       </c>
       <c r="AY40" t="n">
-        <v>326983.008</v>
+        <v>227562</v>
       </c>
       <c r="AZ40" t="n">
-        <v>58658</v>
+        <v>214519.008</v>
       </c>
       <c r="BA40" t="n">
-        <v>59474</v>
+        <v>209772</v>
       </c>
       <c r="BB40" t="n">
-        <v>4115</v>
+        <v>202235.008</v>
       </c>
       <c r="BC40" t="n">
-        <v>4248</v>
+        <v>186810</v>
       </c>
       <c r="BD40" t="n">
-        <v>3313</v>
+        <v>183903.008</v>
       </c>
       <c r="BE40" t="n">
-        <v>3748</v>
+        <v>179190</v>
       </c>
       <c r="BF40" t="n">
-        <v>4062</v>
+        <v>165867.008</v>
       </c>
       <c r="BG40" t="n">
         <v>153800</v>
@@ -8034,11 +7878,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tributos Diferidos</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
         <v>0</v>
       </c>
@@ -8166,49 +8006,49 @@
         <v>0</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>44443</v>
       </c>
       <c r="AS41" t="n">
-        <v>0</v>
+        <v>50760</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
+        <v>49105</v>
       </c>
       <c r="AU41" t="n">
-        <v>0</v>
+        <v>45671</v>
       </c>
       <c r="AV41" t="n">
-        <v>0</v>
+        <v>43054</v>
       </c>
       <c r="AW41" t="n">
-        <v>0</v>
+        <v>42722</v>
       </c>
       <c r="AX41" t="n">
-        <v>0</v>
+        <v>42391</v>
       </c>
       <c r="AY41" t="n">
-        <v>0</v>
+        <v>42059</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0</v>
+        <v>41732</v>
       </c>
       <c r="BA41" t="n">
-        <v>0</v>
+        <v>41413</v>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>41095</v>
       </c>
       <c r="BC41" t="n">
-        <v>0</v>
+        <v>40776</v>
       </c>
       <c r="BD41" t="n">
-        <v>0</v>
+        <v>40457</v>
       </c>
       <c r="BE41" t="n">
-        <v>0</v>
+        <v>40139</v>
       </c>
       <c r="BF41" t="n">
-        <v>0</v>
+        <v>39820</v>
       </c>
       <c r="BG41" t="n">
         <v>39502</v>
@@ -8221,11 +8061,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Adiantamento para Futuro Aumento Capital</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
         <v>0</v>
       </c>
@@ -8408,11 +8244,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Provisões</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
         <v>0</v>
       </c>
@@ -8528,61 +8360,61 @@
         <v>50635</v>
       </c>
       <c r="AN43" t="n">
-        <v>20209</v>
+        <v>50950</v>
       </c>
       <c r="AO43" t="n">
-        <v>22593</v>
+        <v>52644</v>
       </c>
       <c r="AP43" t="n">
-        <v>23972</v>
+        <v>68511</v>
       </c>
       <c r="AQ43" t="n">
-        <v>25597</v>
+        <v>67856</v>
       </c>
       <c r="AR43" t="n">
-        <v>26449</v>
+        <v>68491</v>
       </c>
       <c r="AS43" t="n">
-        <v>28392</v>
+        <v>69859</v>
       </c>
       <c r="AT43" t="n">
-        <v>29742</v>
+        <v>70124</v>
       </c>
       <c r="AU43" t="n">
-        <v>30170</v>
+        <v>69752</v>
       </c>
       <c r="AV43" t="n">
-        <v>30993</v>
+        <v>72400</v>
       </c>
       <c r="AW43" t="n">
-        <v>33198</v>
+        <v>71355</v>
       </c>
       <c r="AX43" t="n">
-        <v>34588</v>
+        <v>71778</v>
       </c>
       <c r="AY43" t="n">
-        <v>36730</v>
+        <v>71566</v>
       </c>
       <c r="AZ43" t="n">
-        <v>95377</v>
+        <v>72568</v>
       </c>
       <c r="BA43" t="n">
-        <v>107766</v>
+        <v>72833</v>
       </c>
       <c r="BB43" t="n">
-        <v>62630</v>
+        <v>73377</v>
       </c>
       <c r="BC43" t="n">
-        <v>63870</v>
+        <v>69637</v>
       </c>
       <c r="BD43" t="n">
-        <v>54328</v>
+        <v>69784</v>
       </c>
       <c r="BE43" t="n">
-        <v>72062</v>
+        <v>70485</v>
       </c>
       <c r="BF43" t="n">
-        <v>61036</v>
+        <v>70283</v>
       </c>
       <c r="BG43" t="n">
         <v>70752</v>
@@ -8595,11 +8427,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
         <v>0</v>
       </c>
@@ -8782,11 +8610,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Lucros e Receitas a Apropriar</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
         <v>0</v>
       </c>
@@ -8969,11 +8793,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Participação dos Acionistas Não Controladores</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
         <v>53</v>
       </c>
@@ -9156,11 +8976,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Patrimônio Líquido</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
         <v>-475579.008</v>
       </c>
@@ -9276,61 +9092,61 @@
         <v>-195332</v>
       </c>
       <c r="AN47" t="n">
-        <v>381800</v>
+        <v>-241388.992</v>
       </c>
       <c r="AO47" t="n">
-        <v>392652.992</v>
+        <v>-246898</v>
       </c>
       <c r="AP47" t="n">
-        <v>412815.008</v>
+        <v>-265638</v>
       </c>
       <c r="AQ47" t="n">
-        <v>432615.008</v>
+        <v>-279734.016</v>
       </c>
       <c r="AR47" t="n">
-        <v>350944</v>
+        <v>-285116.992</v>
       </c>
       <c r="AS47" t="n">
-        <v>370623.008</v>
+        <v>-258520.992</v>
       </c>
       <c r="AT47" t="n">
-        <v>374132</v>
+        <v>-254612</v>
       </c>
       <c r="AU47" t="n">
-        <v>333208.992</v>
+        <v>-241275.008</v>
       </c>
       <c r="AV47" t="n">
-        <v>1797949.952</v>
+        <v>-245160.992</v>
       </c>
       <c r="AW47" t="n">
-        <v>1815346.944</v>
+        <v>-271456.992</v>
       </c>
       <c r="AX47" t="n">
-        <v>1887131.008</v>
+        <v>-114922</v>
       </c>
       <c r="AY47" t="n">
-        <v>2001970.944</v>
+        <v>-114831</v>
       </c>
       <c r="AZ47" t="n">
-        <v>2045266.944</v>
+        <v>-178255.008</v>
       </c>
       <c r="BA47" t="n">
-        <v>2096868.992</v>
+        <v>-202950</v>
       </c>
       <c r="BB47" t="n">
-        <v>2168474.88</v>
+        <v>-195004</v>
       </c>
       <c r="BC47" t="n">
-        <v>2215202.048</v>
+        <v>-179288</v>
       </c>
       <c r="BD47" t="n">
-        <v>2199224.064</v>
+        <v>-155672</v>
       </c>
       <c r="BE47" t="n">
-        <v>2238446.08</v>
+        <v>-136783.008</v>
       </c>
       <c r="BF47" t="n">
-        <v>2298766.08</v>
+        <v>-117170</v>
       </c>
       <c r="BG47" t="n">
         <v>-71947</v>
@@ -9343,11 +9159,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Capital Social Realizado</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
         <v>795142.0159999999</v>
       </c>
@@ -9463,61 +9275,61 @@
         <v>795142.0159999999</v>
       </c>
       <c r="AN48" t="n">
-        <v>202128.992</v>
+        <v>795142.0159999999</v>
       </c>
       <c r="AO48" t="n">
-        <v>202128.992</v>
+        <v>795142.0159999999</v>
       </c>
       <c r="AP48" t="n">
-        <v>202128.992</v>
+        <v>795142.0159999999</v>
       </c>
       <c r="AQ48" t="n">
-        <v>202128.992</v>
+        <v>879785.024</v>
       </c>
       <c r="AR48" t="n">
-        <v>202128.992</v>
+        <v>879785.024</v>
       </c>
       <c r="AS48" t="n">
-        <v>202128.992</v>
+        <v>879785.024</v>
       </c>
       <c r="AT48" t="n">
-        <v>202128.992</v>
+        <v>879785.024</v>
       </c>
       <c r="AU48" t="n">
-        <v>202128.992</v>
+        <v>879785.024</v>
       </c>
       <c r="AV48" t="n">
-        <v>1638057.984</v>
+        <v>879785.024</v>
       </c>
       <c r="AW48" t="n">
-        <v>1638057.984</v>
+        <v>879785.024</v>
       </c>
       <c r="AX48" t="n">
-        <v>1686545.024</v>
+        <v>879785.024</v>
       </c>
       <c r="AY48" t="n">
-        <v>1715267.968</v>
+        <v>879785.024</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1715268.992</v>
+        <v>879785.024</v>
       </c>
       <c r="BA48" t="n">
-        <v>1715268.992</v>
+        <v>879785.024</v>
       </c>
       <c r="BB48" t="n">
-        <v>1715268.992</v>
+        <v>879785.024</v>
       </c>
       <c r="BC48" t="n">
-        <v>1715268.992</v>
+        <v>879785.024</v>
       </c>
       <c r="BD48" t="n">
-        <v>1715268.992</v>
+        <v>879785.024</v>
       </c>
       <c r="BE48" t="n">
-        <v>1715268.992</v>
+        <v>879785.024</v>
       </c>
       <c r="BF48" t="n">
-        <v>1715268.992</v>
+        <v>879785.024</v>
       </c>
       <c r="BG48" t="n">
         <v>879785.024</v>
@@ -9530,11 +9342,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Reservas de Capital</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
         <v>28627</v>
       </c>
@@ -9650,61 +9458,61 @@
         <v>94629</v>
       </c>
       <c r="AN49" t="n">
-        <v>140126</v>
+        <v>94629</v>
       </c>
       <c r="AO49" t="n">
-        <v>140180.992</v>
+        <v>94629</v>
       </c>
       <c r="AP49" t="n">
-        <v>140235.008</v>
+        <v>94629</v>
       </c>
       <c r="AQ49" t="n">
-        <v>140288.992</v>
+        <v>6745</v>
       </c>
       <c r="AR49" t="n">
-        <v>140344</v>
+        <v>6745</v>
       </c>
       <c r="AS49" t="n">
-        <v>140779.008</v>
+        <v>6745</v>
       </c>
       <c r="AT49" t="n">
-        <v>139992</v>
+        <v>6745</v>
       </c>
       <c r="AU49" t="n">
-        <v>127984</v>
+        <v>6745</v>
       </c>
       <c r="AV49" t="n">
-        <v>115830</v>
+        <v>6745</v>
       </c>
       <c r="AW49" t="n">
-        <v>115830</v>
+        <v>6745</v>
       </c>
       <c r="AX49" t="n">
-        <v>116934</v>
+        <v>6745</v>
       </c>
       <c r="AY49" t="n">
-        <v>153268.992</v>
+        <v>6745</v>
       </c>
       <c r="AZ49" t="n">
-        <v>178136.992</v>
+        <v>6745</v>
       </c>
       <c r="BA49" t="n">
-        <v>178075.008</v>
+        <v>6745</v>
       </c>
       <c r="BB49" t="n">
-        <v>177092</v>
+        <v>6745</v>
       </c>
       <c r="BC49" t="n">
-        <v>168844.992</v>
+        <v>6745</v>
       </c>
       <c r="BD49" t="n">
-        <v>177912.992</v>
+        <v>6745</v>
       </c>
       <c r="BE49" t="n">
-        <v>177702</v>
+        <v>6745</v>
       </c>
       <c r="BF49" t="n">
-        <v>173764</v>
+        <v>6745</v>
       </c>
       <c r="BG49" t="n">
         <v>6745</v>
@@ -9717,11 +9525,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Reservas de Reavaliação</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
         <v>50116</v>
       </c>
@@ -9837,19 +9641,19 @@
         <v>26728</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>26201</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>25674</v>
       </c>
       <c r="AP50" t="n">
-        <v>0</v>
+        <v>25148</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0</v>
+        <v>24621</v>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>24096</v>
       </c>
       <c r="AS50" t="n">
         <v>0</v>
@@ -9861,37 +9665,37 @@
         <v>0</v>
       </c>
       <c r="AV50" t="n">
-        <v>0</v>
+        <v>21996</v>
       </c>
       <c r="AW50" t="n">
-        <v>0</v>
+        <v>21473</v>
       </c>
       <c r="AX50" t="n">
-        <v>0</v>
+        <v>20950</v>
       </c>
       <c r="AY50" t="n">
-        <v>0</v>
+        <v>20428</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0</v>
+        <v>19914</v>
       </c>
       <c r="BA50" t="n">
-        <v>0</v>
+        <v>19416</v>
       </c>
       <c r="BB50" t="n">
-        <v>0</v>
+        <v>18919</v>
       </c>
       <c r="BC50" t="n">
-        <v>0</v>
+        <v>18421</v>
       </c>
       <c r="BD50" t="n">
-        <v>0</v>
+        <v>17923</v>
       </c>
       <c r="BE50" t="n">
-        <v>0</v>
+        <v>17425</v>
       </c>
       <c r="BF50" t="n">
-        <v>0</v>
+        <v>16927</v>
       </c>
       <c r="BG50" t="n">
         <v>16429</v>
@@ -9904,11 +9708,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Reservas de Lucros</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
         <v>0</v>
       </c>
@@ -10024,61 +9824,61 @@
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>39545</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>37947</v>
+        <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>38492</v>
+        <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>38492</v>
+        <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>8471</v>
+        <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>8471</v>
+        <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>8471</v>
+        <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>8471</v>
+        <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>44062</v>
+        <v>0</v>
       </c>
       <c r="AW51" t="n">
-        <v>44062</v>
+        <v>0</v>
       </c>
       <c r="AX51" t="n">
-        <v>44062</v>
+        <v>0</v>
       </c>
       <c r="AY51" t="n">
-        <v>44062</v>
+        <v>0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>151860.992</v>
+        <v>0</v>
       </c>
       <c r="BA51" t="n">
-        <v>151860.992</v>
+        <v>0</v>
       </c>
       <c r="BB51" t="n">
-        <v>151860.992</v>
+        <v>0</v>
       </c>
       <c r="BC51" t="n">
-        <v>151860.992</v>
+        <v>0</v>
       </c>
       <c r="BD51" t="n">
-        <v>306041.984</v>
+        <v>0</v>
       </c>
       <c r="BE51" t="n">
-        <v>306041.984</v>
+        <v>0</v>
       </c>
       <c r="BF51" t="n">
-        <v>306409.984</v>
+        <v>0</v>
       </c>
       <c r="BG51" t="n">
         <v>0</v>
@@ -10091,11 +9891,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Lucros/Prejuízos Acumulados</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="n">
         <v>-1269355.008</v>
       </c>
@@ -10211,61 +10007,61 @@
         <v>-1175324.032</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>-1220660.992</v>
       </c>
       <c r="AO52" t="n">
-        <v>12396</v>
+        <v>-1225449.984</v>
       </c>
       <c r="AP52" t="n">
-        <v>31959</v>
+        <v>-1243473.024</v>
       </c>
       <c r="AQ52" t="n">
-        <v>51705</v>
+        <v>-1253608.96</v>
       </c>
       <c r="AR52" t="n">
-        <v>0</v>
+        <v>-1258285.952</v>
       </c>
       <c r="AS52" t="n">
-        <v>19244</v>
+        <v>-1230993.024</v>
       </c>
       <c r="AT52" t="n">
-        <v>23540</v>
+        <v>-1226387.968</v>
       </c>
       <c r="AU52" t="n">
-        <v>-5375</v>
+        <v>-1212355.968</v>
       </c>
       <c r="AV52" t="n">
-        <v>0</v>
+        <v>-1215540.992</v>
       </c>
       <c r="AW52" t="n">
-        <v>17397</v>
+        <v>-1241170.944</v>
       </c>
       <c r="AX52" t="n">
-        <v>39590</v>
+        <v>-1083970.048</v>
       </c>
       <c r="AY52" t="n">
-        <v>89372</v>
+        <v>-1083213.952</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0</v>
+        <v>-1145979.008</v>
       </c>
       <c r="BA52" t="n">
-        <v>51664</v>
+        <v>-1170028.032</v>
       </c>
       <c r="BB52" t="n">
-        <v>124253</v>
+        <v>-1161437.056</v>
       </c>
       <c r="BC52" t="n">
-        <v>179227.008</v>
+        <v>-1145075.968</v>
       </c>
       <c r="BD52" t="n">
-        <v>0</v>
+        <v>-1120816</v>
       </c>
       <c r="BE52" t="n">
-        <v>39433</v>
+        <v>-1101284.992</v>
       </c>
       <c r="BF52" t="n">
-        <v>103323</v>
+        <v>-1081028.992</v>
       </c>
       <c r="BG52" t="n">
         <v>-1035164.032</v>
@@ -10278,11 +10074,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Ajustes de Avaliação Patrimonial</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="n">
         <v>-80109</v>
       </c>
@@ -10398,61 +10190,61 @@
         <v>63493</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>63300</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>63107</v>
       </c>
       <c r="AP53" t="n">
-        <v>0</v>
+        <v>62916</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0</v>
+        <v>62724</v>
       </c>
       <c r="AR53" t="n">
-        <v>0</v>
+        <v>62543</v>
       </c>
       <c r="AS53" t="n">
-        <v>0</v>
+        <v>85942</v>
       </c>
       <c r="AT53" t="n">
-        <v>0</v>
+        <v>85246</v>
       </c>
       <c r="AU53" t="n">
-        <v>0</v>
+        <v>84551</v>
       </c>
       <c r="AV53" t="n">
-        <v>0</v>
+        <v>61854</v>
       </c>
       <c r="AW53" t="n">
-        <v>0</v>
+        <v>61711</v>
       </c>
       <c r="AX53" t="n">
-        <v>0</v>
+        <v>61568</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>61425</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0</v>
+        <v>61280</v>
       </c>
       <c r="BA53" t="n">
-        <v>0</v>
+        <v>61132</v>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>60984</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
+        <v>60837</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>60691</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>60547</v>
       </c>
       <c r="BF53" t="n">
-        <v>0</v>
+        <v>60402</v>
       </c>
       <c r="BG53" t="n">
         <v>60258</v>
@@ -10465,11 +10257,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Ajustes Acumulados de Conversão</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="n">
         <v>0</v>
       </c>
@@ -10652,11 +10440,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Outros Resultados Abrangentes</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="n">
         <v>0</v>
       </c>
@@ -10839,11 +10623,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Adiantamento para Futuro Aumento Capital</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="n">
         <v>0</v>
       </c>
@@ -11299,60 +11079,62 @@
       <c r="AM59" t="n">
         <v>281193.024</v>
       </c>
-      <c r="AN59" t="inlineStr"/>
+      <c r="AN59" t="n">
+        <v>265574</v>
+      </c>
       <c r="AO59" t="n">
-        <v>153439.008</v>
+        <v>278702.016</v>
       </c>
       <c r="AP59" t="n">
-        <v>162478</v>
+        <v>291536.992</v>
       </c>
       <c r="AQ59" t="n">
-        <v>169280</v>
+        <v>223932.976</v>
       </c>
       <c r="AR59" t="n">
-        <v>176665.968</v>
+        <v>267500.992</v>
       </c>
       <c r="AS59" t="n">
-        <v>164312</v>
+        <v>278944</v>
       </c>
       <c r="AT59" t="n">
-        <v>138591.008</v>
+        <v>307046.016</v>
       </c>
       <c r="AU59" t="n">
-        <v>155144.992</v>
+        <v>299521.984</v>
       </c>
       <c r="AV59" t="n">
-        <v>172251.008</v>
+        <v>227051.008</v>
       </c>
       <c r="AW59" t="n">
-        <v>165244</v>
+        <v>287372.992</v>
       </c>
       <c r="AX59" t="n">
-        <v>181648.992</v>
+        <v>292283.008</v>
       </c>
       <c r="AY59" t="n">
-        <v>196888</v>
+        <v>332357.056</v>
       </c>
       <c r="AZ59" t="n">
-        <v>207500.992</v>
+        <v>310107.008</v>
       </c>
       <c r="BA59" t="n">
-        <v>207928</v>
+        <v>371259.008</v>
       </c>
       <c r="BB59" t="n">
-        <v>224590</v>
+        <v>387148</v>
       </c>
       <c r="BC59" t="n">
-        <v>217644.992</v>
+        <v>402666.016</v>
       </c>
       <c r="BD59" t="n">
-        <v>222130</v>
+        <v>359257.984</v>
       </c>
       <c r="BE59" t="n">
-        <v>209020.992</v>
+        <v>339216.992</v>
       </c>
       <c r="BF59" t="n">
-        <v>205780.992</v>
+        <v>373152</v>
       </c>
       <c r="BG59" t="n">
         <v>349056.032</v>
@@ -11484,60 +11266,62 @@
       <c r="AM60" t="n">
         <v>-167599.008</v>
       </c>
-      <c r="AN60" t="inlineStr"/>
+      <c r="AN60" t="n">
+        <v>-150260</v>
+      </c>
       <c r="AO60" t="n">
-        <v>-83631</v>
+        <v>-159223.008</v>
       </c>
       <c r="AP60" t="n">
-        <v>-88029</v>
+        <v>-166684.992</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-94848</v>
+        <v>-172550.976</v>
       </c>
       <c r="AR60" t="n">
-        <v>-92245.984</v>
+        <v>-160856</v>
       </c>
       <c r="AS60" t="n">
-        <v>-81894</v>
+        <v>-176672</v>
       </c>
       <c r="AT60" t="n">
-        <v>-87842</v>
+        <v>-189852.992</v>
       </c>
       <c r="AU60" t="n">
-        <v>-91680</v>
+        <v>-194963.008</v>
       </c>
       <c r="AV60" t="n">
-        <v>-85456.992</v>
+        <v>-163412.992</v>
       </c>
       <c r="AW60" t="n">
-        <v>-93123</v>
+        <v>-213788</v>
       </c>
       <c r="AX60" t="n">
-        <v>-95026</v>
+        <v>-209675.008</v>
       </c>
       <c r="AY60" t="n">
-        <v>-85529</v>
+        <v>-237386.976</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-95274</v>
+        <v>-224190</v>
       </c>
       <c r="BA60" t="n">
-        <v>-92992</v>
+        <v>-242994</v>
       </c>
       <c r="BB60" t="n">
-        <v>-95847</v>
+        <v>-239047.008</v>
       </c>
       <c r="BC60" t="n">
-        <v>-96178</v>
+        <v>-254242.976</v>
       </c>
       <c r="BD60" t="n">
-        <v>-84275.992</v>
+        <v>-217294</v>
       </c>
       <c r="BE60" t="n">
-        <v>-97523</v>
+        <v>-203900.992</v>
       </c>
       <c r="BF60" t="n">
-        <v>-93480</v>
+        <v>-215006</v>
       </c>
       <c r="BG60" t="n">
         <v>-209543.008</v>
@@ -11669,60 +11453,62 @@
       <c r="AM61" t="n">
         <v>113594</v>
       </c>
-      <c r="AN61" t="inlineStr"/>
+      <c r="AN61" t="n">
+        <v>115314</v>
+      </c>
       <c r="AO61" t="n">
-        <v>69808</v>
+        <v>119479</v>
       </c>
       <c r="AP61" t="n">
-        <v>74449</v>
+        <v>124852</v>
       </c>
       <c r="AQ61" t="n">
-        <v>74432</v>
+        <v>51382.008</v>
       </c>
       <c r="AR61" t="n">
-        <v>84419.992</v>
+        <v>106645</v>
       </c>
       <c r="AS61" t="n">
-        <v>82418</v>
+        <v>102272</v>
       </c>
       <c r="AT61" t="n">
-        <v>50749</v>
+        <v>117193</v>
       </c>
       <c r="AU61" t="n">
-        <v>63465</v>
+        <v>104558.992</v>
       </c>
       <c r="AV61" t="n">
-        <v>86793.984</v>
+        <v>63638</v>
       </c>
       <c r="AW61" t="n">
-        <v>72121</v>
+        <v>73585</v>
       </c>
       <c r="AX61" t="n">
-        <v>86623</v>
+        <v>82608</v>
       </c>
       <c r="AY61" t="n">
-        <v>111359</v>
+        <v>94969.992</v>
       </c>
       <c r="AZ61" t="n">
-        <v>112226.984</v>
+        <v>85917</v>
       </c>
       <c r="BA61" t="n">
-        <v>114936</v>
+        <v>128265</v>
       </c>
       <c r="BB61" t="n">
-        <v>128743</v>
+        <v>148100.992</v>
       </c>
       <c r="BC61" t="n">
-        <v>121467</v>
+        <v>148422.992</v>
       </c>
       <c r="BD61" t="n">
-        <v>137854</v>
+        <v>141964</v>
       </c>
       <c r="BE61" t="n">
-        <v>111498</v>
+        <v>135316</v>
       </c>
       <c r="BF61" t="n">
-        <v>112301</v>
+        <v>158146</v>
       </c>
       <c r="BG61" t="n">
         <v>139513.008</v>
@@ -11854,60 +11640,62 @@
       <c r="AM62" t="n">
         <v>-81128.992</v>
       </c>
-      <c r="AN62" t="inlineStr"/>
+      <c r="AN62" t="n">
+        <v>-75218</v>
+      </c>
       <c r="AO62" t="n">
-        <v>-13466</v>
+        <v>-75419</v>
       </c>
       <c r="AP62" t="n">
-        <v>-15993</v>
+        <v>-76867</v>
       </c>
       <c r="AQ62" t="n">
-        <v>-15050</v>
+        <v>3312</v>
       </c>
       <c r="AR62" t="n">
-        <v>-14524</v>
+        <v>-55620</v>
       </c>
       <c r="AS62" t="n">
-        <v>-14765</v>
+        <v>-58429</v>
       </c>
       <c r="AT62" t="n">
-        <v>-11743</v>
+        <v>-59382</v>
       </c>
       <c r="AU62" t="n">
-        <v>-9686</v>
+        <v>-61957.992</v>
       </c>
       <c r="AV62" t="n">
-        <v>-9737</v>
+        <v>-48808</v>
       </c>
       <c r="AW62" t="n">
-        <v>-12827</v>
+        <v>-46534</v>
       </c>
       <c r="AX62" t="n">
-        <v>-14581</v>
+        <v>-51498</v>
       </c>
       <c r="AY62" t="n">
-        <v>-16361</v>
+        <v>-60518</v>
       </c>
       <c r="AZ62" t="n">
-        <v>-16560</v>
+        <v>-57716</v>
       </c>
       <c r="BA62" t="n">
-        <v>-14946</v>
+        <v>-65013</v>
       </c>
       <c r="BB62" t="n">
-        <v>-19186</v>
+        <v>-68219</v>
       </c>
       <c r="BC62" t="n">
-        <v>-19148</v>
+        <v>-66599.008</v>
       </c>
       <c r="BD62" t="n">
-        <v>-15836</v>
+        <v>-63568</v>
       </c>
       <c r="BE62" t="n">
-        <v>-21515</v>
+        <v>-61981</v>
       </c>
       <c r="BF62" t="n">
-        <v>-21804</v>
+        <v>-66946</v>
       </c>
       <c r="BG62" t="n">
         <v>-58975</v>
@@ -12039,60 +11827,62 @@
       <c r="AM63" t="n">
         <v>-24414</v>
       </c>
-      <c r="AN63" t="inlineStr"/>
+      <c r="AN63" t="n">
+        <v>-23062</v>
+      </c>
       <c r="AO63" t="n">
-        <v>-29356</v>
+        <v>-23206</v>
       </c>
       <c r="AP63" t="n">
-        <v>-24007</v>
+        <v>-23877</v>
       </c>
       <c r="AQ63" t="n">
-        <v>-24145</v>
+        <v>-17139</v>
       </c>
       <c r="AR63" t="n">
-        <v>-29512</v>
+        <v>-21040</v>
       </c>
       <c r="AS63" t="n">
-        <v>-29046</v>
+        <v>-23170</v>
       </c>
       <c r="AT63" t="n">
-        <v>-28902</v>
+        <v>-23708</v>
       </c>
       <c r="AU63" t="n">
-        <v>-30029</v>
+        <v>-18867</v>
       </c>
       <c r="AV63" t="n">
-        <v>-28000</v>
+        <v>-20637</v>
       </c>
       <c r="AW63" t="n">
-        <v>-31185</v>
+        <v>-27524</v>
       </c>
       <c r="AX63" t="n">
-        <v>-42752</v>
+        <v>-18760</v>
       </c>
       <c r="AY63" t="n">
-        <v>-41135</v>
+        <v>-18266</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-91502</v>
+        <v>-22327</v>
       </c>
       <c r="BA63" t="n">
-        <v>-50070</v>
+        <v>-23580</v>
       </c>
       <c r="BB63" t="n">
-        <v>-50651</v>
+        <v>-28053</v>
       </c>
       <c r="BC63" t="n">
-        <v>-54338</v>
+        <v>-28563</v>
       </c>
       <c r="BD63" t="n">
-        <v>-63243</v>
+        <v>-26104</v>
       </c>
       <c r="BE63" t="n">
-        <v>-67065</v>
+        <v>-25777</v>
       </c>
       <c r="BF63" t="n">
-        <v>-55651</v>
+        <v>-29183</v>
       </c>
       <c r="BG63" t="n">
         <v>-35423</v>
@@ -12212,42 +12002,44 @@
       <c r="AM64" t="n">
         <v>0</v>
       </c>
-      <c r="AN64" t="inlineStr"/>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
       <c r="AO64" t="n">
-        <v>-182</v>
+        <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="AQ64" t="n">
-        <v>-248</v>
+        <v>0</v>
       </c>
       <c r="AR64" t="n">
-        <v>-563</v>
+        <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>-927</v>
+        <v>0</v>
       </c>
       <c r="AT64" t="n">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="AU64" t="n">
-        <v>-424</v>
+        <v>0</v>
       </c>
       <c r="AV64" t="n">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="AW64" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AX64" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="AY64" t="n">
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="AZ64" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="BA64" t="n">
         <v>0</v>
@@ -12397,60 +12189,62 @@
       <c r="AM65" t="n">
         <v>-566</v>
       </c>
-      <c r="AN65" t="inlineStr"/>
+      <c r="AN65" t="n">
+        <v>2538</v>
+      </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="AP65" t="n">
-        <v>0</v>
+        <v>2537</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>22153</v>
       </c>
       <c r="AS65" t="n">
-        <v>0</v>
+        <v>3929</v>
       </c>
       <c r="AT65" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="AU65" t="n">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="AV65" t="n">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="AW65" t="n">
-        <v>0</v>
+        <v>104790</v>
       </c>
       <c r="AX65" t="n">
-        <v>0</v>
+        <v>7697</v>
       </c>
       <c r="AY65" t="n">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="BA65" t="n">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>-647</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>8064</v>
       </c>
       <c r="BD65" t="n">
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="BE65" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="BF65" t="n">
-        <v>0</v>
+        <v>-791</v>
       </c>
       <c r="BG65" t="n">
         <v>1860</v>
@@ -12582,60 +12376,62 @@
       <c r="AM66" t="n">
         <v>-20002</v>
       </c>
-      <c r="AN66" t="inlineStr"/>
+      <c r="AN66" t="n">
+        <v>-2014</v>
+      </c>
       <c r="AO66" t="n">
-        <v>0</v>
+        <v>-16933</v>
       </c>
       <c r="AP66" t="n">
-        <v>0</v>
+        <v>-12656</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0</v>
+        <v>-13431</v>
       </c>
       <c r="AR66" t="n">
-        <v>0</v>
+        <v>-2256</v>
       </c>
       <c r="AS66" t="n">
-        <v>0</v>
+        <v>-1417</v>
       </c>
       <c r="AT66" t="n">
-        <v>0</v>
+        <v>-1123</v>
       </c>
       <c r="AU66" t="n">
-        <v>-45856</v>
+        <v>-2814</v>
       </c>
       <c r="AV66" t="n">
-        <v>0</v>
+        <v>-937</v>
       </c>
       <c r="AW66" t="n">
-        <v>0</v>
+        <v>11643</v>
       </c>
       <c r="AX66" t="n">
-        <v>0</v>
+        <v>-2233</v>
       </c>
       <c r="AY66" t="n">
-        <v>0</v>
+        <v>-14042</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0</v>
+        <v>-3257</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>-2684</v>
       </c>
       <c r="BB66" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC66" t="n">
-        <v>0</v>
+        <v>4175</v>
       </c>
       <c r="BD66" t="n">
-        <v>0</v>
+        <v>-511</v>
       </c>
       <c r="BE66" t="n">
-        <v>0</v>
+        <v>4666</v>
       </c>
       <c r="BF66" t="n">
-        <v>0</v>
+        <v>2166</v>
       </c>
       <c r="BG66" t="n">
         <v>4941</v>
@@ -12767,7 +12563,9 @@
       <c r="AM67" t="n">
         <v>227</v>
       </c>
-      <c r="AN67" t="inlineStr"/>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
       <c r="AO67" t="n">
         <v>0</v>
       </c>
@@ -12952,60 +12750,62 @@
       <c r="AM68" t="n">
         <v>-25296.992</v>
       </c>
-      <c r="AN68" t="inlineStr"/>
+      <c r="AN68" t="n">
+        <v>-23437</v>
+      </c>
       <c r="AO68" t="n">
-        <v>-6606</v>
+        <v>-24056</v>
       </c>
       <c r="AP68" t="n">
-        <v>-5803</v>
+        <v>-25214</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-5169</v>
+        <v>-32739</v>
       </c>
       <c r="AR68" t="n">
-        <v>-5490</v>
+        <v>-12654</v>
       </c>
       <c r="AS68" t="n">
-        <v>-5073</v>
+        <v>-18387</v>
       </c>
       <c r="AT68" t="n">
-        <v>-4850</v>
+        <v>-16605</v>
       </c>
       <c r="AU68" t="n">
-        <v>-4258</v>
+        <v>-28439</v>
       </c>
       <c r="AV68" t="n">
-        <v>1210</v>
+        <v>-20341</v>
       </c>
       <c r="AW68" t="n">
-        <v>-1707</v>
+        <v>86264</v>
       </c>
       <c r="AX68" t="n">
-        <v>4691</v>
+        <v>-18063</v>
       </c>
       <c r="AY68" t="n">
-        <v>8297</v>
+        <v>-38824</v>
       </c>
       <c r="AZ68" t="n">
-        <v>109448</v>
+        <v>-26497</v>
       </c>
       <c r="BA68" t="n">
-        <v>26187</v>
+        <v>-33269</v>
       </c>
       <c r="BB68" t="n">
-        <v>28997</v>
+        <v>-46252</v>
       </c>
       <c r="BC68" t="n">
-        <v>35072</v>
+        <v>-36134.992</v>
       </c>
       <c r="BD68" t="n">
-        <v>32369</v>
+        <v>-28977</v>
       </c>
       <c r="BE68" t="n">
-        <v>38566</v>
+        <v>-47895</v>
       </c>
       <c r="BF68" t="n">
-        <v>30214</v>
+        <v>-40255</v>
       </c>
       <c r="BG68" t="n">
         <v>-35839</v>
@@ -13137,60 +12937,62 @@
       <c r="AM69" t="n">
         <v>412</v>
       </c>
-      <c r="AN69" t="inlineStr"/>
+      <c r="AN69" t="n">
+        <v>519</v>
+      </c>
       <c r="AO69" t="n">
-        <v>1924</v>
+        <v>456</v>
       </c>
       <c r="AP69" t="n">
-        <v>1428</v>
+        <v>483</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1542</v>
+        <v>327</v>
       </c>
       <c r="AR69" t="n">
-        <v>1155</v>
+        <v>8485</v>
       </c>
       <c r="AS69" t="n">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="AT69" t="n">
-        <v>832</v>
+        <v>761</v>
       </c>
       <c r="AU69" t="n">
-        <v>1381</v>
+        <v>-230</v>
       </c>
       <c r="AV69" t="n">
-        <v>7547</v>
+        <v>158</v>
       </c>
       <c r="AW69" t="n">
-        <v>7249</v>
+        <v>108863</v>
       </c>
       <c r="AX69" t="n">
-        <v>11485</v>
+        <v>8204</v>
       </c>
       <c r="AY69" t="n">
-        <v>15549</v>
+        <v>2117</v>
       </c>
       <c r="AZ69" t="n">
-        <v>102675</v>
+        <v>2917</v>
       </c>
       <c r="BA69" t="n">
-        <v>30707</v>
+        <v>6564</v>
       </c>
       <c r="BB69" t="n">
-        <v>37621</v>
+        <v>-3410</v>
       </c>
       <c r="BC69" t="n">
-        <v>43743</v>
+        <v>5693</v>
       </c>
       <c r="BD69" t="n">
-        <v>42823</v>
+        <v>4442</v>
       </c>
       <c r="BE69" t="n">
-        <v>46984</v>
+        <v>4397</v>
       </c>
       <c r="BF69" t="n">
-        <v>39782</v>
+        <v>3101</v>
       </c>
       <c r="BG69" t="n">
         <v>3852</v>
@@ -13322,60 +13124,62 @@
       <c r="AM70" t="n">
         <v>-25709</v>
       </c>
-      <c r="AN70" t="inlineStr"/>
+      <c r="AN70" t="n">
+        <v>-23956</v>
+      </c>
       <c r="AO70" t="n">
-        <v>-8530</v>
+        <v>-24512</v>
       </c>
       <c r="AP70" t="n">
-        <v>-7231</v>
+        <v>-25697</v>
       </c>
       <c r="AQ70" t="n">
-        <v>-6711</v>
+        <v>-33066</v>
       </c>
       <c r="AR70" t="n">
-        <v>-6645</v>
+        <v>-21139</v>
       </c>
       <c r="AS70" t="n">
-        <v>-5903</v>
+        <v>-19202</v>
       </c>
       <c r="AT70" t="n">
-        <v>-5682</v>
+        <v>-17366</v>
       </c>
       <c r="AU70" t="n">
-        <v>-5639</v>
+        <v>-28209</v>
       </c>
       <c r="AV70" t="n">
-        <v>-6337</v>
+        <v>-20499</v>
       </c>
       <c r="AW70" t="n">
-        <v>-8956</v>
+        <v>-22599</v>
       </c>
       <c r="AX70" t="n">
-        <v>-6794</v>
+        <v>-26267</v>
       </c>
       <c r="AY70" t="n">
-        <v>-7252</v>
+        <v>-40941</v>
       </c>
       <c r="AZ70" t="n">
-        <v>6773</v>
+        <v>-29414</v>
       </c>
       <c r="BA70" t="n">
-        <v>-4520</v>
+        <v>-39833</v>
       </c>
       <c r="BB70" t="n">
-        <v>-8624</v>
+        <v>-42842</v>
       </c>
       <c r="BC70" t="n">
-        <v>-8671</v>
+        <v>-41827.992</v>
       </c>
       <c r="BD70" t="n">
-        <v>-10454</v>
+        <v>-33419</v>
       </c>
       <c r="BE70" t="n">
-        <v>-8418</v>
+        <v>-52292</v>
       </c>
       <c r="BF70" t="n">
-        <v>-9568</v>
+        <v>-43356</v>
       </c>
       <c r="BG70" t="n">
         <v>-39691</v>
@@ -13738,60 +13542,62 @@
       <c r="AM74" t="n">
         <v>-37587</v>
       </c>
-      <c r="AN74" t="inlineStr"/>
+      <c r="AN74" t="n">
+        <v>-5879</v>
+      </c>
       <c r="AO74" t="n">
-        <v>20198</v>
+        <v>-19109</v>
       </c>
       <c r="AP74" t="n">
-        <v>29072</v>
+        <v>-11225</v>
       </c>
       <c r="AQ74" t="n">
-        <v>29820</v>
+        <v>-8244</v>
       </c>
       <c r="AR74" t="n">
-        <v>34331</v>
+        <v>37228</v>
       </c>
       <c r="AS74" t="n">
-        <v>32607</v>
+        <v>4798</v>
       </c>
       <c r="AT74" t="n">
-        <v>6237</v>
+        <v>16646</v>
       </c>
       <c r="AU74" t="n">
-        <v>-26788</v>
+        <v>-6421</v>
       </c>
       <c r="AV74" t="n">
-        <v>50031</v>
+        <v>-26637</v>
       </c>
       <c r="AW74" t="n">
-        <v>26712</v>
+        <v>202224</v>
       </c>
       <c r="AX74" t="n">
-        <v>34225</v>
+        <v>-249</v>
       </c>
       <c r="AY74" t="n">
-        <v>61630</v>
+        <v>-34426</v>
       </c>
       <c r="AZ74" t="n">
-        <v>113589</v>
+        <v>-23903</v>
       </c>
       <c r="BA74" t="n">
-        <v>76107</v>
+        <v>5194</v>
       </c>
       <c r="BB74" t="n">
-        <v>87903</v>
+        <v>4948</v>
       </c>
       <c r="BC74" t="n">
-        <v>83053</v>
+        <v>29365</v>
       </c>
       <c r="BD74" t="n">
-        <v>91144.008</v>
+        <v>24062</v>
       </c>
       <c r="BE74" t="n">
-        <v>61484</v>
+        <v>4396</v>
       </c>
       <c r="BF74" t="n">
-        <v>65060</v>
+        <v>23137</v>
       </c>
       <c r="BG74" t="n">
         <v>16077</v>
@@ -13923,60 +13729,62 @@
       <c r="AM75" t="n">
         <v>0</v>
       </c>
-      <c r="AN75" t="inlineStr"/>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
       <c r="AO75" t="n">
-        <v>-3761</v>
+        <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>-8076</v>
+        <v>0</v>
       </c>
       <c r="AQ75" t="n">
-        <v>-6146</v>
+        <v>2496</v>
       </c>
       <c r="AR75" t="n">
-        <v>-12438</v>
+        <v>-4327</v>
       </c>
       <c r="AS75" t="n">
-        <v>-10219</v>
+        <v>-2556</v>
       </c>
       <c r="AT75" t="n">
-        <v>-6503</v>
+        <v>-6750</v>
       </c>
       <c r="AU75" t="n">
-        <v>-20779</v>
+        <v>-98</v>
       </c>
       <c r="AV75" t="n">
-        <v>18878</v>
+        <v>-2</v>
       </c>
       <c r="AW75" t="n">
-        <v>-6198</v>
+        <v>0</v>
       </c>
       <c r="AX75" t="n">
-        <v>-21100</v>
+        <v>-2</v>
       </c>
       <c r="AY75" t="n">
-        <v>-16773</v>
+        <v>-488</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-18464</v>
+        <v>-106</v>
       </c>
       <c r="BA75" t="n">
-        <v>-33958</v>
+        <v>-194</v>
       </c>
       <c r="BB75" t="n">
-        <v>-23538</v>
+        <v>-20518</v>
       </c>
       <c r="BC75" t="n">
-        <v>-36196</v>
+        <v>-4593</v>
       </c>
       <c r="BD75" t="n">
-        <v>29038</v>
+        <v>-1087</v>
       </c>
       <c r="BE75" t="n">
-        <v>-25014</v>
+        <v>-339</v>
       </c>
       <c r="BF75" t="n">
-        <v>-6861</v>
+        <v>-4778</v>
       </c>
       <c r="BG75" t="n">
         <v>-540</v>
@@ -14108,60 +13916,62 @@
       <c r="AM76" t="n">
         <v>391</v>
       </c>
-      <c r="AN76" t="inlineStr"/>
+      <c r="AN76" t="n">
+        <v>370</v>
+      </c>
       <c r="AO76" t="n">
-        <v>-4041</v>
+        <v>370</v>
       </c>
       <c r="AP76" t="n">
-        <v>-1433</v>
+        <v>370</v>
       </c>
       <c r="AQ76" t="n">
-        <v>-3928</v>
+        <v>364</v>
       </c>
       <c r="AR76" t="n">
-        <v>834</v>
+        <v>-6305</v>
       </c>
       <c r="AS76" t="n">
-        <v>-3144</v>
+        <v>1667</v>
       </c>
       <c r="AT76" t="n">
-        <v>4562</v>
+        <v>3446</v>
       </c>
       <c r="AU76" t="n">
-        <v>18652</v>
+        <v>2628</v>
       </c>
       <c r="AV76" t="n">
-        <v>-16857</v>
+        <v>343</v>
       </c>
       <c r="AW76" t="n">
-        <v>-3117</v>
+        <v>-45688</v>
       </c>
       <c r="AX76" t="n">
-        <v>9068</v>
+        <v>342</v>
       </c>
       <c r="AY76" t="n">
-        <v>4925</v>
+        <v>-28511</v>
       </c>
       <c r="AZ76" t="n">
-        <v>-9300</v>
+        <v>-686</v>
       </c>
       <c r="BA76" t="n">
-        <v>9515</v>
+        <v>2946</v>
       </c>
       <c r="BB76" t="n">
-        <v>8224</v>
+        <v>31314</v>
       </c>
       <c r="BC76" t="n">
-        <v>8116</v>
+        <v>-1182</v>
       </c>
       <c r="BD76" t="n">
-        <v>-1658</v>
+        <v>-4086</v>
       </c>
       <c r="BE76" t="n">
-        <v>2963</v>
+        <v>15555</v>
       </c>
       <c r="BF76" t="n">
-        <v>-27549</v>
+        <v>26868</v>
       </c>
       <c r="BG76" t="n">
         <v>903</v>
@@ -14447,15 +14257,33 @@
       <c r="AM79" t="n">
         <v>0</v>
       </c>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
-      <c r="AU79" t="inlineStr"/>
-      <c r="AV79" t="inlineStr"/>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0</v>
+      </c>
       <c r="AW79" t="n">
         <v>0</v>
       </c>
@@ -14616,60 +14444,62 @@
       <c r="AM80" t="n">
         <v>-37196</v>
       </c>
-      <c r="AN80" t="inlineStr"/>
+      <c r="AN80" t="n">
+        <v>-5509</v>
+      </c>
       <c r="AO80" t="n">
-        <v>12396</v>
+        <v>-18739</v>
       </c>
       <c r="AP80" t="n">
-        <v>19563</v>
+        <v>-10855</v>
       </c>
       <c r="AQ80" t="n">
-        <v>19746</v>
+        <v>-5384</v>
       </c>
       <c r="AR80" t="n">
-        <v>22727</v>
+        <v>26596</v>
       </c>
       <c r="AS80" t="n">
-        <v>19244</v>
+        <v>3909</v>
       </c>
       <c r="AT80" t="n">
-        <v>4296</v>
+        <v>13342</v>
       </c>
       <c r="AU80" t="n">
-        <v>-28915</v>
+        <v>-3891</v>
       </c>
       <c r="AV80" t="n">
-        <v>52052</v>
+        <v>-26296</v>
       </c>
       <c r="AW80" t="n">
-        <v>17397</v>
+        <v>156536</v>
       </c>
       <c r="AX80" t="n">
-        <v>22193</v>
+        <v>91</v>
       </c>
       <c r="AY80" t="n">
-        <v>49782</v>
+        <v>-63425</v>
       </c>
       <c r="AZ80" t="n">
-        <v>85824.992</v>
+        <v>-24695</v>
       </c>
       <c r="BA80" t="n">
-        <v>51664</v>
+        <v>7946</v>
       </c>
       <c r="BB80" t="n">
-        <v>72589</v>
+        <v>15714</v>
       </c>
       <c r="BC80" t="n">
-        <v>54973</v>
+        <v>23618</v>
       </c>
       <c r="BD80" t="n">
-        <v>118524.016</v>
+        <v>18889</v>
       </c>
       <c r="BE80" t="n">
-        <v>39433</v>
+        <v>19613</v>
       </c>
       <c r="BF80" t="n">
-        <v>63890</v>
+        <v>45222</v>
       </c>
       <c r="BG80" t="n">
         <v>16442</v>
